--- a/MANUAL1/Flipkart_Test cases.xlsx
+++ b/MANUAL1/Flipkart_Test cases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Quotient\MANUAL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -347,10 +347,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,14 +674,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -953,16 +953,16 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -993,21 +993,21 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36">
@@ -1052,16 +1052,16 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41">
